--- a/Task/Проверки 1.3 - 1.4 в5.xlsx
+++ b/Task/Проверки 1.3 - 1.4 в5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1.3" sheetId="1" r:id="rId1"/>
@@ -1499,9 +1499,6 @@
     </r>
   </si>
   <si>
-    <t>Коды операций 25, 27, 28, 29, 35, 37, 38, 39, 54, 63, 64, 66</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
     </r>
@@ -1558,7 +1555,101 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, 76, </t>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Минобороны, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <t>Формат ввода не соответствует приказу. Радионуклид отсутствует в справочнике.</t>
+  </si>
+  <si>
+    <t>Сверка со справочником радионуклидов на наличие.</t>
+  </si>
+  <si>
+    <t>При перечислении, в качестве разделителя использовать ;</t>
+  </si>
+  <si>
+    <t>«Формат ввода данных не соответствует приказу. При перечислении, радионуклиды должны быть разделены точкой с запятой.»</t>
+  </si>
+  <si>
+    <t>Сверка со справочником радионуклидов на предмет наличия.</t>
+  </si>
+  <si>
+    <t>«Формат ввода данных не соответствует приказу.  Радионуклид отсутствует в справочнике.»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 25, 27, 28, 29, 35, 37, 38, 39, 54, 63, 64, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -1595,12 +1686,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+      <t xml:space="preserve"> 35, </t>
     </r>
     <r>
       <rPr>
@@ -1611,20 +1697,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Минобороны, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
+      <t>36</t>
     </r>
     <r>
       <rPr>
@@ -1634,26 +1707,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <t>Формат ввода не соответствует приказу. Радионуклид отсутствует в справочнике.</t>
-  </si>
-  <si>
-    <t>Сверка со справочником радионуклидов на наличие.</t>
-  </si>
-  <si>
-    <t>При перечислении, в качестве разделителя использовать ;</t>
-  </si>
-  <si>
-    <t>«Формат ввода данных не соответствует приказу. При перечислении, радионуклиды должны быть разделены точкой с запятой.»</t>
-  </si>
-  <si>
-    <t>Сверка со справочником радионуклидов на предмет наличия.</t>
-  </si>
-  <si>
-    <t>«Формат ввода данных не соответствует приказу.  Радионуклид отсутствует в справочнике.»</t>
+      <t>, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2242,9 +2297,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,10 +2878,10 @@
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H26" s="6"/>
     </row>
@@ -2845,10 +2900,10 @@
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -3357,7 +3412,7 @@
         <v>37</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>162</v>
@@ -3381,7 +3436,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>70</v>
@@ -3405,7 +3460,7 @@
         <v>37</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>72</v>
@@ -3455,7 +3510,7 @@
         <v>37</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>76</v>
@@ -3575,9 +3630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,10 +4165,10 @@
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4620,10 +4675,10 @@
         <v>37</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>69</v>
@@ -4644,10 +4699,10 @@
         <v>37</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>160</v>
@@ -4668,7 +4723,7 @@
         <v>37</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>70</v>
@@ -4692,7 +4747,7 @@
         <v>37</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>72</v>
@@ -4745,7 +4800,7 @@
         <v>119</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>120</v>

--- a/Task/Проверки 1.3 - 1.4 в5.xlsx
+++ b/Task/Проверки 1.3 - 1.4 в5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="1.3" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="168">
   <si>
     <t>Графа</t>
   </si>
@@ -153,21 +153,9 @@
     <t>Код ОКПО организации изготовителя</t>
   </si>
   <si>
-    <t>"Проверьте код ОКПО организации-изготовителя"</t>
-  </si>
-  <si>
-    <t>Цифры</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование и адрес организации-изготовителя ЗРИ»</t>
-  </si>
-  <si>
     <t>Дата выпуска</t>
   </si>
   <si>
-    <t>Дата выпуска &lt;= Дата операции</t>
-  </si>
-  <si>
     <t>Код формы собственности</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
     <t>ОКПО поставщика/получателя</t>
   </si>
   <si>
-    <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, из ОКСМ</t>
-  </si>
-  <si>
     <t>Код ОКПО отчитывающейся организации</t>
   </si>
   <si>
@@ -249,9 +234,6 @@
     <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, -</t>
   </si>
   <si>
-    <t>Коды операций 21, 25, 27, 28, 29, 31, 32, 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
-  </si>
-  <si>
     <t>Наименование прибора (установки)</t>
   </si>
   <si>
@@ -331,27 +313,6 @@
     <t>Наличие отчета по форме 1.1 (код 65) с той же учетной единицей.</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка сведений в графе 9. Должны быть цифры, длина значения поля: 8 или 14 символов, в т.ч. значимые 0. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверка сведений в графе 9. Должно быть выбрано значение из справочника ОКСМ </t>
-  </si>
-  <si>
-    <r>
-      <t>84, 85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 86, 83</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Наличие в графе 6 хотя бы одного из перечисленных ниже радионуклидов: Плутоний-238; Плутоний-239; Плутоний-240; Уран-233, Уран-235, Уран-238; Нептуний-237; Америций-241; Америций-243; Калифорний-252; Торий-232; Литий-6; Дейтерий; Тритий. </t>
   </si>
   <si>
@@ -367,103 +328,25 @@
     <t>Активность, Бк</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Если в графе 6 указан </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>один радионукли</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>д, то берется для него значение МЗА из таблицы и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
-  </si>
-  <si>
     <t>«Учетной единицы с такими параметрами нет в организации. Проверьте правильность указываемых сведений для ОРИ»</t>
   </si>
   <si>
     <t>«Заполните форму 1.1»</t>
   </si>
   <si>
-    <t>«Код используется для предоставления сведений об ОРИ, произведенных в Российской Федерации»</t>
-  </si>
-  <si>
-    <t>«Код используется для предоставления сведений об ОРИ, произведенных за пределами Российской Федерации»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Если в графе 6 указано </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>несколько радионуклидов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, без указания процентной доли каждого радионуклида по активности, то из таблицы берется значение наименьшего МЗА, и если Ао&lt;МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
-    </r>
-  </si>
-  <si>
-    <t>Для равновесных радионуклидов (радионуклиды приведены в НП-067-16 приложении 2 и помечены &lt;*&gt;) считается по радионуклиду, который в основной таблице. Если ниже МЗА, то сообщение «Активность ниже МЗА, ОРИ не является объектом учета СГУК РВ и РАО»</t>
-  </si>
-  <si>
     <t>«Проверьте правильность предоставления сведений по активности»</t>
   </si>
   <si>
-    <t>В графе 9 - ОКПО отчитывающейся организации</t>
-  </si>
-  <si>
-    <t>из ОКСМ, Прим.</t>
-  </si>
-  <si>
     <t>Агрегатное состояние</t>
   </si>
   <si>
     <t>1, 2, 3</t>
   </si>
   <si>
-    <t>1, 2, 3, 4 в графе 12</t>
-  </si>
-  <si>
-    <t>6 в графе 12</t>
-  </si>
-  <si>
-    <t>5 в графе 12</t>
-  </si>
-  <si>
     <t>Не пустое поле (допускается сивол "-")</t>
   </si>
   <si>
     <t>Не пустое поле. Допускается значение "-"</t>
-  </si>
-  <si>
-    <t>Не пустое поле. Если несколько - разделение через точку с запятой. Допускается значение "-"</t>
   </si>
   <si>
     <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
@@ -606,9 +489,6 @@
     <t>Масса, кг</t>
   </si>
   <si>
-    <t>не проверяется (только соответствие с предыдущими операциями). Не пустое поле.</t>
-  </si>
-  <si>
     <t>1, 2, 3, 4 в графе 13</t>
   </si>
   <si>
@@ -677,20 +557,437 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">В графе 17 код ОКПО отчитывающейся организации. </t>
-  </si>
-  <si>
-    <t>В графе 17 код ОКПО НЕ отчитывающейся организации. Любой ОКПО, не совпадающей с ОКПО организации, подающей отчёт.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тип </t>
   </si>
   <si>
     <t xml:space="preserve">номер </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Код операции 11, </t>
+    <t>Если в графе 12 значение 3, то в ячейке значение больше ноля.</t>
+  </si>
+  <si>
+    <t>Если в графе 12 значение 1 или 2, то в ячейке значение больше ноля.</t>
+  </si>
+  <si>
+    <t>«Графа должна быть заполнена»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Графа не может быть пустой</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Выберите значение для агрегатного состояния: 1- твердое, 2 - жидкое; 3 - газообразное»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выберите идентификатор, соотвествующий форме собственности ЗРИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  российское юридическое лицо необходимо указать его код ОКПО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В случае, если правообладатель  иностранное государство необходимо указать его краткое наименование в соответствии с ОКСМ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование и адрес правообладателя (собственника или обладателя иного вещного права) на ОРИ»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО отчитывающейся организации»</t>
+  </si>
+  <si>
+    <t>Код ОКПО НЕ отчитывающейся организации</t>
+  </si>
+  <si>
+    <t>«Для выбранного кода операции указывается код ОКПО контрагента»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При выбранном коде операции траспортирование не производится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>«</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">В графе 18 код ОКПО отчитывающейся организации. </t>
+  </si>
+  <si>
+    <t>«В графе 18 необходимо указать код ОКПО своей организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В графе </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> код ОКПО НЕ отчитывающейся организации. Любой ОКПО, не совпадающей с ОКПО организации, подающей отчёт.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«В графе </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> необходимо указать ОКПО подрядной организации»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необходимо указать вид РВ в соответствии с таблицей 4 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>»</t>
+    </r>
+  </si>
+  <si>
+    <t>Не пустое поле. Допускается значение "-". Если поле не заполнено, то сообщение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если несколько - разделение через точку с запятой. </t>
+  </si>
+  <si>
+    <t>«Формат ввода данных не соответствует приказу. Радионуклиды должны быть разделены точкой с запятой»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Укажите объем ОРИ "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Укажите массу ОРИ "</t>
+  </si>
+  <si>
+    <t>"Графа не может быть пустой. Укажите оценочное значение массы ОРИ  в круглых скобках"</t>
+  </si>
+  <si>
+    <t>"Графа не может быть пустой. Укажите оценочное значение объема ОРИ  в круглых скобках"</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
+  </si>
+  <si>
+    <t>«Необходимо указать в примечании наименование и адрес правообладателя (собственника или обладателя иного вещного права) объекта учета»</t>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не пустое поле.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не пустое поле. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Допускается значение "-"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
     </r>
     <r>
       <rPr>
@@ -701,10 +998,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>58</t>
-    </r>
-  </si>
-  <si>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 97, 98</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -714,7 +1024,36 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>Минобороны, из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
     </r>
     <r>
       <rPr>
@@ -724,7 +1063,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 10, 11, 12, 15, 17, 18, 21, 22, 25, 27, 28, 29, 31, 32, 35, 37, 38, 39, 41, 42, 43, </t>
+      <t>из ОКСМ</t>
+    </r>
+  </si>
+  <si>
+    <t>Формат ввода не соответствует приказу. Радионуклид отсутствует в справочнике.</t>
+  </si>
+  <si>
+    <t>Сверка со справочником радионуклидов на наличие.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 25, 27, 28, 29, 35, 37, 38, 39, 54, 63, 64, </t>
     </r>
     <r>
       <rPr>
@@ -735,7 +1085,23 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>48</t>
+      <t>66</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
     </r>
     <r>
       <rPr>
@@ -745,7 +1111,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 61, 62, 63, 64, 65, </t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
     </r>
     <r>
       <rPr>
@@ -756,7 +1138,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>66,</t>
+      <t>32,</t>
     </r>
     <r>
       <rPr>
@@ -766,40 +1148,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 67, 68, 71, 72, 73, 74, 75, 81, 82, 83, 84, 85, 86, 87, 88, 97, 98, 99, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
+      <t xml:space="preserve"> 35, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>46,47</t>
-    </r>
-  </si>
-  <si>
-    <t>Если в графе 12 значение 3, то в ячейке значение больше ноля.</t>
-  </si>
-  <si>
-    <t>Если в графе 12 значение 1 или 2, то в ячейке значение больше ноля.</t>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+    </r>
+  </si>
+  <si>
+    <t>Не пустое поле и не "-".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Код операции не может быть использован в форме 1.3</t>
+      <t>97, 98, 99</t>
+    </r>
+  </si>
+  <si>
+    <t>Коды операций 25, 27, 28, 29, 35, 37, 38, 39, 54, 63, 64</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32,</t>
     </r>
     <r>
       <rPr>
@@ -809,905 +1217,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Графа должна быть заполнена»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Графа не может быть пустой</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Укажите код ОКПО организации изготовителя</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Выберите значение для агрегатного состояния: 1- твердое, 2 - жидкое; 3 - газообразное»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Выберите идентификатор, соотвествующий форме собственности ЗРИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если правообладатель  российское юридическое лицо необходимо указать его код ОКПО</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если правообладатель  иностранное государство необходимо указать его краткое наименование в соответствии с ОКСМ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование и адрес правообладателя (собственника или обладателя иного вещного права) на ОРИ»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Из возможных значений. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При коде операции 11 должено быть 9.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать вид документа в соответствии с таблицей 3 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО отчитывающейся организации»</t>
-  </si>
-  <si>
-    <t>Код ОКПО НЕ отчитывающейся организации</t>
-  </si>
-  <si>
-    <t>«Для выбранного кода операции указывается код ОКПО контрагента»</t>
-  </si>
-  <si>
-    <t>Коды операций  25, 27, 28, 29, 35, 37, 38, 39, 63, 64</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Следует указать код ОКПО контрагента, либо "Минобороны" без кавычек</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>46, 53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">76, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>46, 47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 53, 54, 58, 65, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 67, 68, 71, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 97, 98</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>При выбранном коде операции траспортирование не производится</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>«</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать код ОКПО организации перевозчика, либо "Минобороны" без кавычек»</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">В графе 18 код ОКПО отчитывающейся организации. </t>
-  </si>
-  <si>
-    <t>«В графе 18 необходимо указать код ОКПО своей организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">В графе </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> код ОКПО НЕ отчитывающейся организации. Любой ОКПО, не совпадающей с ОКПО организации, подающей отчёт.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> необходимо указать ОКПО подрядной организации»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Необходимо указать вид РВ в соответствии с таблицей 4 приложения № 2 к приказу Госкорпорации "Росатом" от 07.12.2020 № 1/13-НПА</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>Не пустое поле. Допускается значение "-". Если поле не заполнено, то сообщение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Если несколько - разделение через точку с запятой. </t>
-  </si>
-  <si>
-    <t>«Формат ввода данных не соответствует приказу. Радионуклиды должны быть разделены точкой с запятой»</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Укажите объем ОРИ "</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Укажите массу ОРИ "</t>
-  </si>
-  <si>
-    <t>"Графа не может быть пустой. Укажите оценочное значение массы ОРИ  в круглых скобках"</t>
-  </si>
-  <si>
-    <t>"Графа не может быть пустой. Укажите оценочное значение объема ОРИ  в круглых скобках"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«Формат ввода данных не соответствует приказу. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Выберите идентификатор, соотвествующий форме собственности ОРИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Номера строк должны располагаться по порядку, без пропусков или дублирования номеров </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 17  необходимо указать код ОКПО </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>отчитывающейся</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  организации. В случае, если зарядку/разрядку осуществляла подрядная организация, следует использовать код операции 54»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">«В графе 17 необходимо указать ОКПО подрядной организации. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>В случае, если зарядка/разрядка осуществлялась силами отчитывающейся организации, следует использовать код операции 53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>»</t>
-    </r>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование субъекта Российской Федерации, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование муниципального образования, в собственности которого находится объект учета»</t>
-  </si>
-  <si>
-    <t>«Необходимо указать в примечании наименование и адрес правообладателя (собственника или обладателя иного вещного права) объекта учета»</t>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Не пустое поле.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Не пустое поле. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Допускается значение "-"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11,12, 15, 17, 18, 41, 42, 43, 46, 53, 54, 58, 65, 66, 67, 68, 71, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 97, 98</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Минобороны, из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">цифры и нижнее подчеркивание (длина 8 или 14 символов), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Минобороны, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>цифры и нижнее подчеркивание (длина 8 или 14 символов), Минобороны,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> из ОКСМ</t>
-    </r>
-  </si>
-  <si>
-    <t>Формат ввода не соответствует приказу. Радионуклид отсутствует в справочнике.</t>
-  </si>
-  <si>
-    <t>Сверка со справочником радионуклидов на наличие.</t>
-  </si>
-  <si>
-    <t>При перечислении, в качестве разделителя использовать ;</t>
-  </si>
-  <si>
-    <t>«Формат ввода данных не соответствует приказу. При перечислении, радионуклиды должны быть разделены точкой с запятой.»</t>
-  </si>
-  <si>
-    <t>Сверка со справочником радионуклидов на предмет наличия.</t>
-  </si>
-  <si>
-    <t>«Формат ввода данных не соответствует приказу.  Радионуклид отсутствует в справочнике.»</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 25, 27, 28, 29, 35, 37, 38, 39, 54, 63, 64, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 10, 11, 12, 15, 17,18, 41, 42, 43, 46, 53, 58, 61, 62, 65, 67, 68, 71, 72, 72, 73, 74, 75, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>97, 98, 99</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Коды операций 21, 25, 27, 28, 29, 31, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 35, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
+      <t xml:space="preserve"> 35, 36, 37, 38, 39, 61, 62, 81, 82, 83, 84, 85, 86, 87, 88</t>
     </r>
   </si>
 </sst>
@@ -1715,12 +1225,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1922,7 +1440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1930,10 +1448,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1942,49 +1460,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2297,9 +1818,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,7 +1862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2358,8 +1879,8 @@
       <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>182</v>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -2373,15 +1894,15 @@
       <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>145</v>
+      <c r="D3" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>148</v>
+        <v>76</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -2395,19 +1916,19 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2419,17 +1940,17 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2439,19 +1960,19 @@
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
+      <c r="D6" s="2"/>
+      <c r="E6" s="18">
+        <v>53</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2461,19 +1982,19 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>54</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2483,19 +2004,19 @@
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>18</v>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -2506,14 +2027,14 @@
         <v>5</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>86</v>
+      <c r="E9" s="5">
+        <v>15</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -2529,17 +2050,17 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -2550,18 +2071,18 @@
         <v>5</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5">
-        <v>41</v>
+      <c r="E11" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -2571,19 +2092,19 @@
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>183</v>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -2593,15 +2114,15 @@
       <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>54</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>184</v>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -2620,7 +2141,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>20</v>
@@ -2664,14 +2185,14 @@
         <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2681,19 +2202,19 @@
       <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7">
-        <v>81.88</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>104</v>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -2705,17 +2226,17 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -2726,18 +2247,16 @@
         <v>29</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>31</v>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -2748,18 +2267,16 @@
         <v>29</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>35</v>
+        <v>164</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -2769,13 +2286,15 @@
       <c r="C21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>117</v>
+      <c r="D21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -2784,18 +2303,20 @@
         <v>5</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>41</v>
+      <c r="D22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="H22" s="5"/>
     </row>
@@ -2809,15 +2330,13 @@
       <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>97</v>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="H23" s="5"/>
     </row>
@@ -2826,22 +2345,24 @@
         <v>5</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>150</v>
+      <c r="D24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -2851,19 +2372,19 @@
       <c r="C25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>149</v>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6</v>
       </c>
@@ -2873,19 +2394,19 @@
       <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>200</v>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -2895,117 +2416,113 @@
       <c r="C27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>202</v>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>101</v>
+        <v>78</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>7</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>149</v>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>108</v>
+        <v>78</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="H32" s="6"/>
     </row>
@@ -3020,18 +2537,16 @@
         <v>37</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>9</v>
       </c>
@@ -3041,15 +2556,13 @@
       <c r="C34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>151</v>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -3063,57 +2576,59 @@
       <c r="C35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="D35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>46</v>
+        <v>76</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>11</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>152</v>
+      <c r="D37" s="15">
+        <v>2</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="H37" s="6"/>
     </row>
@@ -3122,20 +2637,20 @@
         <v>12</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>181</v>
+      <c r="D38" s="15">
+        <v>3</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="H38" s="6"/>
     </row>
@@ -3144,152 +2659,148 @@
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="2">
-        <v>2</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>185</v>
+      <c r="D39" s="15">
+        <v>9</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="2">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>186</v>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="2">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>187</v>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>13</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>154</v>
+        <v>50</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>13</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="D43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>114</v>
-      </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>156</v>
+        <v>96</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>14</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>158</v>
+        <v>56</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="H45" s="6"/>
     </row>
@@ -3298,18 +2809,20 @@
         <v>15</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>150</v>
+        <v>59</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="H46" s="6"/>
     </row>
@@ -3318,86 +2831,92 @@
         <v>16</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F47" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>16</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="E48" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>64</v>
       </c>
+      <c r="G48" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>16</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="E49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>66</v>
+        <v>166</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>17</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>159</v>
+        <v>66</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="H50" s="6"/>
     </row>
@@ -3406,22 +2925,22 @@
         <v>17</v>
       </c>
       <c r="B51" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>161</v>
+      <c r="F51" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -3430,122 +2949,114 @@
         <v>17</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>17</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="22" t="s">
-        <v>196</v>
+      <c r="D53" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>81</v>
+        <v>99</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>18</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="H54" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>18</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>120</v>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="H55" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>18</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>71</v>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="H56" s="6">
         <v>1</v>
@@ -3556,7 +3067,7 @@
         <v>19</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>37</v>
@@ -3564,10 +3075,10 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="12" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H57" s="6">
         <v>1</v>
@@ -3578,7 +3089,7 @@
         <v>20</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>37</v>
@@ -3586,10 +3097,10 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="12" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H58" s="6">
         <v>1</v>
@@ -3600,7 +3111,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>37</v>
@@ -3608,10 +3119,10 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="12" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H59" s="6">
         <v>1</v>
@@ -3620,9 +3131,6 @@
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D37" twoDigitTextYear="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3630,7 +3138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
@@ -3707,11 +3215,11 @@
         <v>37</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>41</v>
@@ -3733,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -3777,10 +3285,10 @@
         <v>53</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -3799,10 +3307,10 @@
         <v>54</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -3865,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>19</v>
@@ -3884,13 +3392,13 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -3931,10 +3439,10 @@
         <v>41</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -3953,7 +3461,7 @@
         <v>58</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>20</v>
@@ -3997,10 +3505,10 @@
         <v>65</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -4061,10 +3569,10 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="9" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -4073,7 +3581,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>37</v>
@@ -4084,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -4093,20 +3601,20 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -4125,10 +3633,10 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -4145,10 +3653,10 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="19" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -4165,10 +3673,10 @@
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -4187,10 +3695,10 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -4199,20 +3707,20 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -4221,21 +3729,21 @@
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -4243,21 +3751,21 @@
         <v>8</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -4265,21 +3773,21 @@
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4287,7 +3795,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>29</v>
@@ -4295,10 +3803,10 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -4307,10 +3815,10 @@
         <v>10</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -4318,7 +3826,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -4327,18 +3835,18 @@
         <v>10</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -4347,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -4358,7 +3866,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4367,18 +3875,18 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -4387,20 +3895,20 @@
         <v>12</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -4409,20 +3917,20 @@
         <v>13</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -4431,7 +3939,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>5</v>
@@ -4441,10 +3949,10 @@
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -4453,7 +3961,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>5</v>
@@ -4463,10 +3971,10 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -4475,7 +3983,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>5</v>
@@ -4485,10 +3993,10 @@
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -4497,20 +4005,20 @@
         <v>14</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -4519,20 +4027,20 @@
         <v>14</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -4541,20 +4049,20 @@
         <v>14</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -4563,20 +4071,20 @@
         <v>15</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -4585,7 +4093,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>37</v>
@@ -4593,10 +4101,10 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4605,7 +4113,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>29</v>
@@ -4613,10 +4121,10 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4625,20 +4133,20 @@
         <v>17</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -4647,7 +4155,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>29</v>
@@ -4657,10 +4165,10 @@
         <v>33</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -4669,22 +4177,22 @@
         <v>18</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -4693,22 +4201,22 @@
         <v>18</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="H49" s="2"/>
     </row>
@@ -4717,22 +4225,22 @@
         <v>18</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -4741,22 +4249,22 @@
         <v>18</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F51" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -4765,22 +4273,22 @@
         <v>19</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -4791,22 +4299,22 @@
         <v>19</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="H53" s="2">
         <v>1</v>
@@ -4817,22 +4325,22 @@
         <v>19</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -4843,7 +4351,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>37</v>
@@ -4851,10 +4359,10 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="12" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -4865,7 +4373,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>37</v>
@@ -4873,10 +4381,10 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="12" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -4887,7 +4395,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>37</v>
@@ -4895,10 +4403,10 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="12" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
